--- a/biology/Microbiologie/Psychrobacter/Psychrobacter.xlsx
+++ b/biology/Microbiologie/Psychrobacter/Psychrobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychrobacter est un genre de bactérie appartenant à la classe des Gammaproteobacteria, à coloration de Gram négatif, aérobie strict, chimiohétérotrophe, adapté au froid et osmotolérant. Les cellules sont sphériques à bacillaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychrobacter est un genre de bactérie appartenant à la classe des Gammaproteobacteria, à coloration de Gram négatif, aérobie strict, chimiohétérotrophe, adapté au froid et osmotolérant. Les cellules sont sphériques à bacillaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Psychrobacter est trouvé dans une large gamme d’habitat. Un grand nombre d’espèces étudiées sont isolées d’environnement froid et salin (eau de mer glaciale, pergélisol) et d’environnement marin plus conventionnel (eau de mer, sédiment marin, marais salant). Certaines espèces font partie de la flore microbienne alimentaire : poisson salé, poisson frais, fruits de mer fermentés, de fromage. Des espèces peuvent altérer les aliments.
 </t>
@@ -542,7 +556,9 @@
           <t>Description de quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychrobacter immobilis : cette espèce est isolée de l'eau de mer, de poissons et de viandes. Elle peut être impliquée dans l'altération de produits alimentaires. Elle est aussi parfois isolée d'échantillons cliniques (abcès, plaies, LCR, cathéters...).
 Psychrobacter fozii est isolée de sédiments marins et d'eau de mer.
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (9 mars 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (9 mars 2020) :
 Psychrobacter adeliensis Shivaji &amp; al., 2005
 Psychrobacter aestuarii Baik &amp; al., 2010
 Psychrobacter alimentarius Yoon &amp; al., 2005
@@ -642,7 +660,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines souches présentent un intérêt biotechnologique comme la production de protéines et enzymes actives à des températures froides (pour des modifications de substances thermolabiles par exemple).
 </t>
@@ -673,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Elliot Juni et Gloria A. Heym, « Psychrobacter immobilis gen. nov., sp. nov.: Genospecies Composed of Gram-Negative, Aerobic, Oxidase-Positive Coccobacilli », International Journal of Systematic Bacteriology, vol. 36, no 3,‎ 1er juillet 1986, p. 388–391 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-36-3-388)</t>
         </is>
